--- a/template/excel/字段信息模板.xlsx
+++ b/template/excel/字段信息模板.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>表英文名</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>{.tableNameCn}</t>
+  </si>
+  <si>
+    <t>{.fieldNameCn}</t>
   </si>
   <si>
     <t>{.primaryKey}</t>
@@ -1360,7 +1363,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23636363636364" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1424,28 +1427,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
